--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="820" yWindow="460" windowWidth="17800" windowHeight="10060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="820" yWindow="500" windowWidth="17800" windowHeight="10060" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="About" sheetId="1" state="visible" r:id="rId1"/>
@@ -1162,11 +1162,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="2">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="173">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,7 +1805,12 @@
           <t>BCDTRtSY BAU Cargo Dist Transported Relative to Start Year</t>
         </is>
       </c>
-      <c r="C1" s="47" t="n">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Ohio</t>
+        </is>
+      </c>
+      <c r="C1" s="45" t="n">
         <v>44307</v>
       </c>
     </row>
@@ -8829,46 +8834,46 @@
     </row>
     <row r="86" ht="15" customHeight="1" s="18" thickBot="1"/>
     <row r="87" ht="15" customHeight="1" s="18">
-      <c r="B87" s="45" t="inlineStr">
+      <c r="B87" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">   1/ Commercial trucks 8,501 to 10,000 pounds gross vehicle weight rating.</t>
         </is>
       </c>
-      <c r="C87" s="46" t="n"/>
-      <c r="D87" s="46" t="n"/>
-      <c r="E87" s="46" t="n"/>
-      <c r="F87" s="46" t="n"/>
-      <c r="G87" s="46" t="n"/>
-      <c r="H87" s="46" t="n"/>
-      <c r="I87" s="46" t="n"/>
-      <c r="J87" s="46" t="n"/>
-      <c r="K87" s="46" t="n"/>
-      <c r="L87" s="46" t="n"/>
-      <c r="M87" s="46" t="n"/>
-      <c r="N87" s="46" t="n"/>
-      <c r="O87" s="46" t="n"/>
-      <c r="P87" s="46" t="n"/>
-      <c r="Q87" s="46" t="n"/>
-      <c r="R87" s="46" t="n"/>
-      <c r="S87" s="46" t="n"/>
-      <c r="T87" s="46" t="n"/>
-      <c r="U87" s="46" t="n"/>
-      <c r="V87" s="46" t="n"/>
-      <c r="W87" s="46" t="n"/>
-      <c r="X87" s="46" t="n"/>
-      <c r="Y87" s="46" t="n"/>
-      <c r="Z87" s="46" t="n"/>
-      <c r="AA87" s="46" t="n"/>
-      <c r="AB87" s="46" t="n"/>
-      <c r="AC87" s="46" t="n"/>
-      <c r="AD87" s="46" t="n"/>
-      <c r="AE87" s="46" t="n"/>
-      <c r="AF87" s="46" t="n"/>
-      <c r="AG87" s="46" t="n"/>
-      <c r="AH87" s="46" t="n"/>
-      <c r="AI87" s="46" t="n"/>
-      <c r="AJ87" s="46" t="n"/>
-      <c r="AK87" s="46" t="n"/>
+      <c r="C87" s="47" t="n"/>
+      <c r="D87" s="47" t="n"/>
+      <c r="E87" s="47" t="n"/>
+      <c r="F87" s="47" t="n"/>
+      <c r="G87" s="47" t="n"/>
+      <c r="H87" s="47" t="n"/>
+      <c r="I87" s="47" t="n"/>
+      <c r="J87" s="47" t="n"/>
+      <c r="K87" s="47" t="n"/>
+      <c r="L87" s="47" t="n"/>
+      <c r="M87" s="47" t="n"/>
+      <c r="N87" s="47" t="n"/>
+      <c r="O87" s="47" t="n"/>
+      <c r="P87" s="47" t="n"/>
+      <c r="Q87" s="47" t="n"/>
+      <c r="R87" s="47" t="n"/>
+      <c r="S87" s="47" t="n"/>
+      <c r="T87" s="47" t="n"/>
+      <c r="U87" s="47" t="n"/>
+      <c r="V87" s="47" t="n"/>
+      <c r="W87" s="47" t="n"/>
+      <c r="X87" s="47" t="n"/>
+      <c r="Y87" s="47" t="n"/>
+      <c r="Z87" s="47" t="n"/>
+      <c r="AA87" s="47" t="n"/>
+      <c r="AB87" s="47" t="n"/>
+      <c r="AC87" s="47" t="n"/>
+      <c r="AD87" s="47" t="n"/>
+      <c r="AE87" s="47" t="n"/>
+      <c r="AF87" s="47" t="n"/>
+      <c r="AG87" s="47" t="n"/>
+      <c r="AH87" s="47" t="n"/>
+      <c r="AI87" s="47" t="n"/>
+      <c r="AJ87" s="47" t="n"/>
+      <c r="AK87" s="47" t="n"/>
     </row>
     <row r="88" ht="15" customHeight="1" s="18">
       <c r="B88" s="7" t="inlineStr">
@@ -16014,47 +16019,47 @@
     </row>
     <row r="76">
       <c r="A76" s="29" t="n"/>
-      <c r="B76" s="45" t="inlineStr">
+      <c r="B76" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">   1/ Commercial light trucks from 8,501 to 10,000 pounds.</t>
         </is>
       </c>
-      <c r="C76" s="46" t="n"/>
-      <c r="D76" s="46" t="n"/>
-      <c r="E76" s="46" t="n"/>
-      <c r="F76" s="46" t="n"/>
-      <c r="G76" s="46" t="n"/>
-      <c r="H76" s="46" t="n"/>
-      <c r="I76" s="46" t="n"/>
-      <c r="J76" s="46" t="n"/>
-      <c r="K76" s="46" t="n"/>
-      <c r="L76" s="46" t="n"/>
-      <c r="M76" s="46" t="n"/>
-      <c r="N76" s="46" t="n"/>
-      <c r="O76" s="46" t="n"/>
-      <c r="P76" s="46" t="n"/>
-      <c r="Q76" s="46" t="n"/>
-      <c r="R76" s="46" t="n"/>
-      <c r="S76" s="46" t="n"/>
-      <c r="T76" s="46" t="n"/>
-      <c r="U76" s="46" t="n"/>
-      <c r="V76" s="46" t="n"/>
-      <c r="W76" s="46" t="n"/>
-      <c r="X76" s="46" t="n"/>
-      <c r="Y76" s="46" t="n"/>
-      <c r="Z76" s="46" t="n"/>
-      <c r="AA76" s="46" t="n"/>
-      <c r="AB76" s="46" t="n"/>
-      <c r="AC76" s="46" t="n"/>
-      <c r="AD76" s="46" t="n"/>
-      <c r="AE76" s="46" t="n"/>
-      <c r="AF76" s="46" t="n"/>
-      <c r="AG76" s="46" t="n"/>
-      <c r="AH76" s="46" t="n"/>
-      <c r="AI76" s="46" t="n"/>
-      <c r="AJ76" s="46" t="n"/>
-      <c r="AK76" s="46" t="n"/>
-      <c r="AL76" s="46" t="n"/>
+      <c r="C76" s="47" t="n"/>
+      <c r="D76" s="47" t="n"/>
+      <c r="E76" s="47" t="n"/>
+      <c r="F76" s="47" t="n"/>
+      <c r="G76" s="47" t="n"/>
+      <c r="H76" s="47" t="n"/>
+      <c r="I76" s="47" t="n"/>
+      <c r="J76" s="47" t="n"/>
+      <c r="K76" s="47" t="n"/>
+      <c r="L76" s="47" t="n"/>
+      <c r="M76" s="47" t="n"/>
+      <c r="N76" s="47" t="n"/>
+      <c r="O76" s="47" t="n"/>
+      <c r="P76" s="47" t="n"/>
+      <c r="Q76" s="47" t="n"/>
+      <c r="R76" s="47" t="n"/>
+      <c r="S76" s="47" t="n"/>
+      <c r="T76" s="47" t="n"/>
+      <c r="U76" s="47" t="n"/>
+      <c r="V76" s="47" t="n"/>
+      <c r="W76" s="47" t="n"/>
+      <c r="X76" s="47" t="n"/>
+      <c r="Y76" s="47" t="n"/>
+      <c r="Z76" s="47" t="n"/>
+      <c r="AA76" s="47" t="n"/>
+      <c r="AB76" s="47" t="n"/>
+      <c r="AC76" s="47" t="n"/>
+      <c r="AD76" s="47" t="n"/>
+      <c r="AE76" s="47" t="n"/>
+      <c r="AF76" s="47" t="n"/>
+      <c r="AG76" s="47" t="n"/>
+      <c r="AH76" s="47" t="n"/>
+      <c r="AI76" s="47" t="n"/>
+      <c r="AJ76" s="47" t="n"/>
+      <c r="AK76" s="47" t="n"/>
+      <c r="AL76" s="47" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="29" t="n"/>
@@ -35765,46 +35770,46 @@
     </row>
     <row r="204" ht="15" customHeight="1" s="18" thickBot="1"/>
     <row r="205" ht="15" customHeight="1" s="18">
-      <c r="B205" s="45" t="inlineStr">
+      <c r="B205" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">   1/ Assumed to be the same as International U.S..</t>
         </is>
       </c>
-      <c r="C205" s="46" t="n"/>
-      <c r="D205" s="46" t="n"/>
-      <c r="E205" s="46" t="n"/>
-      <c r="F205" s="46" t="n"/>
-      <c r="G205" s="46" t="n"/>
-      <c r="H205" s="46" t="n"/>
-      <c r="I205" s="46" t="n"/>
-      <c r="J205" s="46" t="n"/>
-      <c r="K205" s="46" t="n"/>
-      <c r="L205" s="46" t="n"/>
-      <c r="M205" s="46" t="n"/>
-      <c r="N205" s="46" t="n"/>
-      <c r="O205" s="46" t="n"/>
-      <c r="P205" s="46" t="n"/>
-      <c r="Q205" s="46" t="n"/>
-      <c r="R205" s="46" t="n"/>
-      <c r="S205" s="46" t="n"/>
-      <c r="T205" s="46" t="n"/>
-      <c r="U205" s="46" t="n"/>
-      <c r="V205" s="46" t="n"/>
-      <c r="W205" s="46" t="n"/>
-      <c r="X205" s="46" t="n"/>
-      <c r="Y205" s="46" t="n"/>
-      <c r="Z205" s="46" t="n"/>
-      <c r="AA205" s="46" t="n"/>
-      <c r="AB205" s="46" t="n"/>
-      <c r="AC205" s="46" t="n"/>
-      <c r="AD205" s="46" t="n"/>
-      <c r="AE205" s="46" t="n"/>
-      <c r="AF205" s="46" t="n"/>
-      <c r="AG205" s="46" t="n"/>
-      <c r="AH205" s="46" t="n"/>
-      <c r="AI205" s="46" t="n"/>
-      <c r="AJ205" s="46" t="n"/>
-      <c r="AK205" s="46" t="n"/>
+      <c r="C205" s="47" t="n"/>
+      <c r="D205" s="47" t="n"/>
+      <c r="E205" s="47" t="n"/>
+      <c r="F205" s="47" t="n"/>
+      <c r="G205" s="47" t="n"/>
+      <c r="H205" s="47" t="n"/>
+      <c r="I205" s="47" t="n"/>
+      <c r="J205" s="47" t="n"/>
+      <c r="K205" s="47" t="n"/>
+      <c r="L205" s="47" t="n"/>
+      <c r="M205" s="47" t="n"/>
+      <c r="N205" s="47" t="n"/>
+      <c r="O205" s="47" t="n"/>
+      <c r="P205" s="47" t="n"/>
+      <c r="Q205" s="47" t="n"/>
+      <c r="R205" s="47" t="n"/>
+      <c r="S205" s="47" t="n"/>
+      <c r="T205" s="47" t="n"/>
+      <c r="U205" s="47" t="n"/>
+      <c r="V205" s="47" t="n"/>
+      <c r="W205" s="47" t="n"/>
+      <c r="X205" s="47" t="n"/>
+      <c r="Y205" s="47" t="n"/>
+      <c r="Z205" s="47" t="n"/>
+      <c r="AA205" s="47" t="n"/>
+      <c r="AB205" s="47" t="n"/>
+      <c r="AC205" s="47" t="n"/>
+      <c r="AD205" s="47" t="n"/>
+      <c r="AE205" s="47" t="n"/>
+      <c r="AF205" s="47" t="n"/>
+      <c r="AG205" s="47" t="n"/>
+      <c r="AH205" s="47" t="n"/>
+      <c r="AI205" s="47" t="n"/>
+      <c r="AJ205" s="47" t="n"/>
+      <c r="AK205" s="47" t="n"/>
     </row>
     <row r="206" ht="15" customHeight="1" s="18">
       <c r="B206" s="7" t="inlineStr">
@@ -43281,46 +43286,46 @@
     </row>
     <row r="87" ht="15" customHeight="1" s="18">
       <c r="A87" s="29" t="n"/>
-      <c r="B87" s="45" t="inlineStr">
+      <c r="B87" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">   1/ Commercial trucks 8,501 to 10,000 pounds gross vehicle weight rating.</t>
         </is>
       </c>
-      <c r="C87" s="46" t="n"/>
-      <c r="D87" s="46" t="n"/>
-      <c r="E87" s="46" t="n"/>
-      <c r="F87" s="46" t="n"/>
-      <c r="G87" s="46" t="n"/>
-      <c r="H87" s="46" t="n"/>
-      <c r="I87" s="46" t="n"/>
-      <c r="J87" s="46" t="n"/>
-      <c r="K87" s="46" t="n"/>
-      <c r="L87" s="46" t="n"/>
-      <c r="M87" s="46" t="n"/>
-      <c r="N87" s="46" t="n"/>
-      <c r="O87" s="46" t="n"/>
-      <c r="P87" s="46" t="n"/>
-      <c r="Q87" s="46" t="n"/>
-      <c r="R87" s="46" t="n"/>
-      <c r="S87" s="46" t="n"/>
-      <c r="T87" s="46" t="n"/>
-      <c r="U87" s="46" t="n"/>
-      <c r="V87" s="46" t="n"/>
-      <c r="W87" s="46" t="n"/>
-      <c r="X87" s="46" t="n"/>
-      <c r="Y87" s="46" t="n"/>
-      <c r="Z87" s="46" t="n"/>
-      <c r="AA87" s="46" t="n"/>
-      <c r="AB87" s="46" t="n"/>
-      <c r="AC87" s="46" t="n"/>
-      <c r="AD87" s="46" t="n"/>
-      <c r="AE87" s="46" t="n"/>
-      <c r="AF87" s="46" t="n"/>
-      <c r="AG87" s="46" t="n"/>
-      <c r="AH87" s="46" t="n"/>
-      <c r="AI87" s="46" t="n"/>
-      <c r="AJ87" s="45" t="n"/>
-      <c r="AK87" s="45" t="n"/>
+      <c r="C87" s="47" t="n"/>
+      <c r="D87" s="47" t="n"/>
+      <c r="E87" s="47" t="n"/>
+      <c r="F87" s="47" t="n"/>
+      <c r="G87" s="47" t="n"/>
+      <c r="H87" s="47" t="n"/>
+      <c r="I87" s="47" t="n"/>
+      <c r="J87" s="47" t="n"/>
+      <c r="K87" s="47" t="n"/>
+      <c r="L87" s="47" t="n"/>
+      <c r="M87" s="47" t="n"/>
+      <c r="N87" s="47" t="n"/>
+      <c r="O87" s="47" t="n"/>
+      <c r="P87" s="47" t="n"/>
+      <c r="Q87" s="47" t="n"/>
+      <c r="R87" s="47" t="n"/>
+      <c r="S87" s="47" t="n"/>
+      <c r="T87" s="47" t="n"/>
+      <c r="U87" s="47" t="n"/>
+      <c r="V87" s="47" t="n"/>
+      <c r="W87" s="47" t="n"/>
+      <c r="X87" s="47" t="n"/>
+      <c r="Y87" s="47" t="n"/>
+      <c r="Z87" s="47" t="n"/>
+      <c r="AA87" s="47" t="n"/>
+      <c r="AB87" s="47" t="n"/>
+      <c r="AC87" s="47" t="n"/>
+      <c r="AD87" s="47" t="n"/>
+      <c r="AE87" s="47" t="n"/>
+      <c r="AF87" s="47" t="n"/>
+      <c r="AG87" s="47" t="n"/>
+      <c r="AH87" s="47" t="n"/>
+      <c r="AI87" s="47" t="n"/>
+      <c r="AJ87" s="46" t="n"/>
+      <c r="AK87" s="46" t="n"/>
     </row>
     <row r="88" ht="15" customHeight="1" s="18">
       <c r="A88" s="29" t="n"/>
@@ -50267,45 +50272,45 @@
     </row>
     <row r="76">
       <c r="A76" s="29" t="n"/>
-      <c r="B76" s="45" t="inlineStr">
+      <c r="B76" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">   1/ Commercial light trucks from 8,501 to 10,000 pounds.</t>
         </is>
       </c>
-      <c r="C76" s="46" t="n"/>
-      <c r="D76" s="46" t="n"/>
-      <c r="E76" s="46" t="n"/>
-      <c r="F76" s="46" t="n"/>
-      <c r="G76" s="46" t="n"/>
-      <c r="H76" s="46" t="n"/>
-      <c r="I76" s="46" t="n"/>
-      <c r="J76" s="46" t="n"/>
-      <c r="K76" s="46" t="n"/>
-      <c r="L76" s="46" t="n"/>
-      <c r="M76" s="46" t="n"/>
-      <c r="N76" s="46" t="n"/>
-      <c r="O76" s="46" t="n"/>
-      <c r="P76" s="46" t="n"/>
-      <c r="Q76" s="46" t="n"/>
-      <c r="R76" s="46" t="n"/>
-      <c r="S76" s="46" t="n"/>
-      <c r="T76" s="46" t="n"/>
-      <c r="U76" s="46" t="n"/>
-      <c r="V76" s="46" t="n"/>
-      <c r="W76" s="46" t="n"/>
-      <c r="X76" s="46" t="n"/>
-      <c r="Y76" s="46" t="n"/>
-      <c r="Z76" s="46" t="n"/>
-      <c r="AA76" s="46" t="n"/>
-      <c r="AB76" s="46" t="n"/>
-      <c r="AC76" s="46" t="n"/>
-      <c r="AD76" s="46" t="n"/>
-      <c r="AE76" s="46" t="n"/>
-      <c r="AF76" s="46" t="n"/>
-      <c r="AG76" s="46" t="n"/>
-      <c r="AH76" s="46" t="n"/>
-      <c r="AI76" s="46" t="n"/>
-      <c r="AJ76" s="45" t="n"/>
+      <c r="C76" s="47" t="n"/>
+      <c r="D76" s="47" t="n"/>
+      <c r="E76" s="47" t="n"/>
+      <c r="F76" s="47" t="n"/>
+      <c r="G76" s="47" t="n"/>
+      <c r="H76" s="47" t="n"/>
+      <c r="I76" s="47" t="n"/>
+      <c r="J76" s="47" t="n"/>
+      <c r="K76" s="47" t="n"/>
+      <c r="L76" s="47" t="n"/>
+      <c r="M76" s="47" t="n"/>
+      <c r="N76" s="47" t="n"/>
+      <c r="O76" s="47" t="n"/>
+      <c r="P76" s="47" t="n"/>
+      <c r="Q76" s="47" t="n"/>
+      <c r="R76" s="47" t="n"/>
+      <c r="S76" s="47" t="n"/>
+      <c r="T76" s="47" t="n"/>
+      <c r="U76" s="47" t="n"/>
+      <c r="V76" s="47" t="n"/>
+      <c r="W76" s="47" t="n"/>
+      <c r="X76" s="47" t="n"/>
+      <c r="Y76" s="47" t="n"/>
+      <c r="Z76" s="47" t="n"/>
+      <c r="AA76" s="47" t="n"/>
+      <c r="AB76" s="47" t="n"/>
+      <c r="AC76" s="47" t="n"/>
+      <c r="AD76" s="47" t="n"/>
+      <c r="AE76" s="47" t="n"/>
+      <c r="AF76" s="47" t="n"/>
+      <c r="AG76" s="47" t="n"/>
+      <c r="AH76" s="47" t="n"/>
+      <c r="AI76" s="47" t="n"/>
+      <c r="AJ76" s="46" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="29" t="n"/>
@@ -70205,46 +70210,46 @@
     </row>
     <row r="205" ht="15" customHeight="1" s="18">
       <c r="A205" s="29" t="n"/>
-      <c r="B205" s="45" t="inlineStr">
+      <c r="B205" s="46" t="inlineStr">
         <is>
           <t xml:space="preserve">   1/ Assumed to be the same as International U.S..</t>
         </is>
       </c>
-      <c r="C205" s="46" t="n"/>
-      <c r="D205" s="46" t="n"/>
-      <c r="E205" s="46" t="n"/>
-      <c r="F205" s="46" t="n"/>
-      <c r="G205" s="46" t="n"/>
-      <c r="H205" s="46" t="n"/>
-      <c r="I205" s="46" t="n"/>
-      <c r="J205" s="46" t="n"/>
-      <c r="K205" s="46" t="n"/>
-      <c r="L205" s="46" t="n"/>
-      <c r="M205" s="46" t="n"/>
-      <c r="N205" s="46" t="n"/>
-      <c r="O205" s="46" t="n"/>
-      <c r="P205" s="46" t="n"/>
-      <c r="Q205" s="46" t="n"/>
-      <c r="R205" s="46" t="n"/>
-      <c r="S205" s="46" t="n"/>
-      <c r="T205" s="46" t="n"/>
-      <c r="U205" s="46" t="n"/>
-      <c r="V205" s="46" t="n"/>
-      <c r="W205" s="46" t="n"/>
-      <c r="X205" s="46" t="n"/>
-      <c r="Y205" s="46" t="n"/>
-      <c r="Z205" s="46" t="n"/>
-      <c r="AA205" s="46" t="n"/>
-      <c r="AB205" s="46" t="n"/>
-      <c r="AC205" s="46" t="n"/>
-      <c r="AD205" s="46" t="n"/>
-      <c r="AE205" s="46" t="n"/>
-      <c r="AF205" s="46" t="n"/>
-      <c r="AG205" s="46" t="n"/>
-      <c r="AH205" s="46" t="n"/>
-      <c r="AI205" s="46" t="n"/>
-      <c r="AJ205" s="45" t="n"/>
-      <c r="AK205" s="45" t="n"/>
+      <c r="C205" s="47" t="n"/>
+      <c r="D205" s="47" t="n"/>
+      <c r="E205" s="47" t="n"/>
+      <c r="F205" s="47" t="n"/>
+      <c r="G205" s="47" t="n"/>
+      <c r="H205" s="47" t="n"/>
+      <c r="I205" s="47" t="n"/>
+      <c r="J205" s="47" t="n"/>
+      <c r="K205" s="47" t="n"/>
+      <c r="L205" s="47" t="n"/>
+      <c r="M205" s="47" t="n"/>
+      <c r="N205" s="47" t="n"/>
+      <c r="O205" s="47" t="n"/>
+      <c r="P205" s="47" t="n"/>
+      <c r="Q205" s="47" t="n"/>
+      <c r="R205" s="47" t="n"/>
+      <c r="S205" s="47" t="n"/>
+      <c r="T205" s="47" t="n"/>
+      <c r="U205" s="47" t="n"/>
+      <c r="V205" s="47" t="n"/>
+      <c r="W205" s="47" t="n"/>
+      <c r="X205" s="47" t="n"/>
+      <c r="Y205" s="47" t="n"/>
+      <c r="Z205" s="47" t="n"/>
+      <c r="AA205" s="47" t="n"/>
+      <c r="AB205" s="47" t="n"/>
+      <c r="AC205" s="47" t="n"/>
+      <c r="AD205" s="47" t="n"/>
+      <c r="AE205" s="47" t="n"/>
+      <c r="AF205" s="47" t="n"/>
+      <c r="AG205" s="47" t="n"/>
+      <c r="AH205" s="47" t="n"/>
+      <c r="AI205" s="47" t="n"/>
+      <c r="AJ205" s="46" t="n"/>
+      <c r="AK205" s="46" t="n"/>
     </row>
     <row r="206" ht="15" customHeight="1" s="18">
       <c r="A206" s="29" t="n"/>
